--- a/005-formatacao/13-colagemEspecial.xlsx
+++ b/005-formatacao/13-colagemEspecial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55219\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\hashtag\hashtagExcel\005-formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC23473-3FA9-4952-A266-F16C7AF4C57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23A6D1C-2547-4DCC-A682-910B0959C414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C0B1E5A-D6DF-4E50-8A48-CFF6B05730EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C0B1E5A-D6DF-4E50-8A48-CFF6B05730EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -91,9 +91,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -408,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44DF7CF-1996-4B15-93AC-3132E6FF2CF9}">
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>2</v>
       </c>
@@ -424,10 +424,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>4</v>
       </c>
@@ -435,10 +435,18 @@
         <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f>F3+2</f>
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f>G3+2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>6</v>
       </c>
@@ -446,17 +454,75 @@
         <v>6</v>
       </c>
       <c r="F4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="L5" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <v>12</v>
       </c>
     </row>
